--- a/biology/Botanique/Coutoubea_spicata/Coutoubea_spicata.xlsx
+++ b/biology/Botanique/Coutoubea_spicata/Coutoubea_spicata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coutoubea spicata est une  espèce de plante herbacée, néotropicale, appartenant à la famille des Gentianaceae. Il s'agit de l'espèce type du genre Coutoubea Aubl..
-On l'appelle en Guyane centaurée, centaurelle de Cayenne, centaurée blanche de Cayenne[3], baume celeste, gentiane[4], centorel, santorèl (Créole), a'apoã laãnga (Wayãpi), atit βan (Palikur), diambarana (Portugais)[5], tautanmiuméê (Wayana)[6], et Papai-Nicolau dans la région de Bahia au Brésil[7].
+On l'appelle en Guyane centaurée, centaurelle de Cayenne, centaurée blanche de Cayenne, baume celeste, gentiane, centorel, santorèl (Créole), a'apoã laãnga (Wayãpi), atit βan (Palikur), diambarana (Portugais), tautanmiuméê (Wayana), et Papai-Nicolau dans la région de Bahia au Brésil.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Coutoubea spicata est une plante herbacée à base ligneuse, haute de 15-150 cm. 
 La tige atteint un diamètre de 0,1-0,5 cm à sa base, et présente des parties saines anguleuses ou cannelées, lisses, simples ou peu ramifiées.
@@ -526,9 +540,9 @@
 Les calice est vert (brillant), coriace, long de 5-10 mm, avec des lobes étroitement triangulaires à marge blanche, à apex longuement acuminé, et mesurant 3-7 x 1-2 mm.
 La corolle est chartacée à membraneuse, de couleur blanche à rose ou pourpre, à gorge pourpre foncé, rose ou lilas, longue de 11-18 mm, avec des lobes réfléchis, étroitement elliptiques, à apex acuminé mesurant 5-9 x 1,5-3 mm.
 Les filets sont blancs, longs de 2-7 mm, les anthères jaune pâle ou brunes, longues de 2,5-4,5 mm.
-L'ovaire est ovoïde, mesurant 4 × 1,5 mm, avec le style charnu, blanc, long de 5 mm, et les lobes du stigmate blancs mesurant 0,5-2 x 0,5-1,5 mm[8]. 
+L'ovaire est ovoïde, mesurant 4 × 1,5 mm, avec le style charnu, blanc, long de 5 mm, et les lobes du stigmate blancs mesurant 0,5-2 x 0,5-1,5 mm. 
 Le fruit est vert, ovoïde ou ellipsoïde, mesurant 5-9 x 1,5-3 mm.
-Les graines sont brunes, atteignant 0,3 mm de diamètre[9],[6].
+Les graines sont brunes, atteignant 0,3 mm de diamètre,.
 </t>
         </is>
       </c>
@@ -557,9 +571,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Coutoubea spicata du sud du Mexique au Brésil, en passant par l'Amérique centrale, la Colombie, le Venezuela, et les Guyanes[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Coutoubea spicata du sud du Mexique au Brésil, en passant par l'Amérique centrale, la Colombie, le Venezuela, et les Guyanes.
 </t>
         </is>
       </c>
@@ -588,15 +604,17 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Coutoubea spicata pousse dans les savanes[10] sur sol sableux, argileux, latéritique ou rocheux, les zones perturbées, et les marécages ou bords de lacs, à 20-325 m d'altitude[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Coutoubea spicata pousse dans les savanes sur sol sableux, argileux, latéritique ou rocheux, les zones perturbées, et les marécages ou bords de lacs, à 20-325 m d'altitude.
 Coutoubea spicata a été étudiée sous divers aspects : 
-ses fibres[11]
-ses nectaires extrafloraux[12]
-son pollen[13]
-sa phyllogénie[14]
-sa présence dans la banque de graines du sol dans les systèmes agroforestiers au Brésil[15],[16]</t>
+ses fibres
+ses nectaires extrafloraux
+son pollen
+sa phyllogénie
+sa présence dans la banque de graines du sol dans les systèmes agroforestiers au Brésil,</t>
         </is>
       </c>
     </row>
@@ -624,16 +642,18 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1897, Heckel rapporte sur Coutoubea spicata : « propre aux lieux humides. Plante très amére, stomachique et vermifuge. C'est, dit Aublet, à propos de cette dernière plante, un remède excellent pour rétablir le cours des règles (emménagogue). »[3].
-En Guyane, les Créoles et les Palikur emploient la décoction de feuilles Coutoubea spicata comme antipyrétique, antipaludéen, vermifuge et désinfectant sur les blessures[5].
-En tant qu'antipaludéen, il est utilisé souvent en association avec Geissospermum spp. et Quassia amara[17],[18].
-Il est aussi connu pour ses propriétés antipaludéennes ailleurs en Amérique du sud (Brésil, Pérou)[19].
-Coutoubea spicata est employé dans le traitement de la grippe, du diabète, et comme abortif par les communautés marronnes Afro-Brésiliennes dans les forêts pluviales de la côte atlantique de Bahia, au Brésil[7].
-Coutoubea spicata serait toxique pour le bétail[6].
-L'extrait de Coutoubea spicata aurait des propriétés hypoglycémiantes antidiabétiques[20],[21] et sa toxicité aiguë a été étudiée dans ce cadre[22].
-On a isolé dans Coutoubea spicata des glycosides de flavonol, des glycosides secoiridoïdes, ainsi que la gentiopicrine et la swertiamarine qui sont à l'origine de son amertume[23],[24].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1897, Heckel rapporte sur Coutoubea spicata : « propre aux lieux humides. Plante très amére, stomachique et vermifuge. C'est, dit Aublet, à propos de cette dernière plante, un remède excellent pour rétablir le cours des règles (emménagogue). ».
+En Guyane, les Créoles et les Palikur emploient la décoction de feuilles Coutoubea spicata comme antipyrétique, antipaludéen, vermifuge et désinfectant sur les blessures.
+En tant qu'antipaludéen, il est utilisé souvent en association avec Geissospermum spp. et Quassia amara,.
+Il est aussi connu pour ses propriétés antipaludéennes ailleurs en Amérique du sud (Brésil, Pérou).
+Coutoubea spicata est employé dans le traitement de la grippe, du diabète, et comme abortif par les communautés marronnes Afro-Brésiliennes dans les forêts pluviales de la côte atlantique de Bahia, au Brésil.
+Coutoubea spicata serait toxique pour le bétail.
+L'extrait de Coutoubea spicata aurait des propriétés hypoglycémiantes antidiabétiques, et sa toxicité aiguë a été étudiée dans ce cadre.
+On a isolé dans Coutoubea spicata des glycosides de flavonol, des glycosides secoiridoïdes, ainsi que la gentiopicrine et la swertiamarine qui sont à l'origine de son amertume,.
 </t>
         </is>
       </c>
@@ -662,9 +682,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé le protologue suivant[25] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « 1. COUTOUBEA (ſpicata). foliis ovato-oblongis, acutis ; floribus albis. (Tabula 27.) 
 Gentiana Valerianæ hortenſis folio ; flore albo, ſpicato. Bar. Franc. æquin, p. 54.
 Planta annua, tripedalis. Radix fibroſa, ramoſa, ſublignoſa. Caulis rectus, teres. Folia oppoſita, ſubcarnosa, ſeſſilia, glabra, glauca, lanceolata, integerrima, quandoque tenia, verticillata. Flores ſpicati, axillares, &amp; terminales ; inferiores in ipica oppoſiti, poſteà alterni, ſupremi quaterni verticillati ; omnes ſeſſiles ad baſim, tribus bracteis muniti, duobus lateralibus minoribus. Corolla alba, non decidua.
